--- a/test-code-generator/Evaluation/QuantitativeEvaluation/4/UC2.2_TC1.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/4/UC2.2_TC1.xlsx
@@ -616,11 +616,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.325260689965263</v>
+        <v>0.315885689965263</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.325260689965263, 'ngram_match_score': 0.1816204270030371, 'weighted_ngram_match_score': 0.23259800853369045, 'syntax_match_score': 0.5743243243243243, 'dataflow_match_score': 0.3125}</t>
+          <t>{'codebleu': 0.315885689965263, 'ngram_match_score': 0.1816204270030371, 'weighted_ngram_match_score': 0.23259800853369045, 'syntax_match_score': 0.5743243243243243, 'dataflow_match_score': 0.275}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">
